--- a/Code/Results/Cases/Case_0_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_210/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1470893481094606</v>
+        <v>0.04997025638596142</v>
       </c>
       <c r="D2">
-        <v>0.06285588410639065</v>
+        <v>0.02157755715489174</v>
       </c>
       <c r="E2">
-        <v>1.435331350624082</v>
+        <v>0.424270739259299</v>
       </c>
       <c r="F2">
-        <v>0.2936280698958953</v>
+        <v>0.382896176993512</v>
       </c>
       <c r="G2">
-        <v>0.1935862940099966</v>
+        <v>0.2336590723292602</v>
       </c>
       <c r="H2">
-        <v>0.1500975049620692</v>
+        <v>0.4056141175377235</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.461611335669716</v>
+        <v>1.78362691403629</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6766513297065302</v>
+        <v>1.193360450870998</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1272480849491586</v>
+        <v>0.04433884867539462</v>
       </c>
       <c r="D3">
-        <v>0.05519191605203844</v>
+        <v>0.01901427093091712</v>
       </c>
       <c r="E3">
-        <v>1.231983394681862</v>
+        <v>0.3700728317306954</v>
       </c>
       <c r="F3">
-        <v>0.2677003576480672</v>
+        <v>0.3838145461420837</v>
       </c>
       <c r="G3">
-        <v>0.1749859076899227</v>
+        <v>0.2354554517334009</v>
       </c>
       <c r="H3">
-        <v>0.1496141671855824</v>
+        <v>0.4115929439719608</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.764474804670954</v>
+        <v>1.557469793599068</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6357342581257797</v>
+        <v>1.209364920688103</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1151785360859492</v>
+        <v>0.04089501431946019</v>
       </c>
       <c r="D4">
-        <v>0.05048474036635042</v>
+        <v>0.01743346039221905</v>
       </c>
       <c r="E4">
-        <v>1.109508460503761</v>
+        <v>0.3368859138142</v>
       </c>
       <c r="F4">
-        <v>0.253109205304952</v>
+        <v>0.3848471278943677</v>
       </c>
       <c r="G4">
-        <v>0.1648729776816111</v>
+        <v>0.236951864078776</v>
       </c>
       <c r="H4">
-        <v>0.150088338924725</v>
+        <v>0.4156111646194205</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.336783130226422</v>
+        <v>1.418055232556583</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6149870186564783</v>
+        <v>1.220741970214036</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.110284540179677</v>
+        <v>0.03949509809710605</v>
       </c>
       <c r="D5">
-        <v>0.0485655769967579</v>
+        <v>0.01678757195953295</v>
       </c>
       <c r="E5">
-        <v>1.060106245548496</v>
+        <v>0.3233829881485804</v>
       </c>
       <c r="F5">
-        <v>0.2474710492556511</v>
+        <v>0.3853851691370451</v>
       </c>
       <c r="G5">
-        <v>0.1610532582463762</v>
+        <v>0.2376598418865896</v>
       </c>
       <c r="H5">
-        <v>0.1504631636487304</v>
+        <v>0.4173356763975136</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.162518786804071</v>
+        <v>1.36110720448039</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6075487882768726</v>
+        <v>1.225765901275011</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.109473260244215</v>
+        <v>0.03926285251057493</v>
       </c>
       <c r="D6">
-        <v>0.04824682805184466</v>
+        <v>0.01668022178436246</v>
       </c>
       <c r="E6">
-        <v>1.051931158135091</v>
+        <v>0.3211420537095364</v>
       </c>
       <c r="F6">
-        <v>0.2465526957473045</v>
+        <v>0.3854815747799591</v>
       </c>
       <c r="G6">
-        <v>0.1604364294228304</v>
+        <v>0.2377833086799939</v>
       </c>
       <c r="H6">
-        <v>0.1505360271011611</v>
+        <v>0.4176272807690751</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.133581940565534</v>
+        <v>1.351642954366298</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6063727129447471</v>
+        <v>1.226623474389186</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1151124400702201</v>
+        <v>0.04087612051199585</v>
       </c>
       <c r="D7">
-        <v>0.05045886243546249</v>
+        <v>0.01742475651194297</v>
       </c>
       <c r="E7">
-        <v>1.10884026614373</v>
+        <v>0.336703725944858</v>
       </c>
       <c r="F7">
-        <v>0.2530319541270387</v>
+        <v>0.3848539101436828</v>
       </c>
       <c r="G7">
-        <v>0.164820278357098</v>
+        <v>0.2369610155974442</v>
       </c>
       <c r="H7">
-        <v>0.1500926743072739</v>
+        <v>0.4156340698455665</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.33443292755419</v>
+        <v>1.417287755151335</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6148826956082303</v>
+        <v>1.220808157791708</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1402221300415363</v>
+        <v>0.04802565737435316</v>
       </c>
       <c r="D8">
-        <v>0.06021328166431772</v>
+        <v>0.02069520621004983</v>
       </c>
       <c r="E8">
-        <v>1.364664998936917</v>
+        <v>0.4055633357183694</v>
       </c>
       <c r="F8">
-        <v>0.2843961398521699</v>
+        <v>0.3831151886882864</v>
       </c>
       <c r="G8">
-        <v>0.1868843516344327</v>
+        <v>0.2341963547123385</v>
       </c>
       <c r="H8">
-        <v>0.1497632099752764</v>
+        <v>0.4076034052631954</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.221124177204786</v>
+        <v>1.705764848277454</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6615826381826508</v>
+        <v>1.198555758758474</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1905544824282259</v>
+        <v>0.06215732992041012</v>
       </c>
       <c r="D9">
-        <v>0.07936039060518851</v>
+        <v>0.02705157992572538</v>
       </c>
       <c r="E9">
-        <v>1.889836733780356</v>
+        <v>0.5414061261407994</v>
       </c>
       <c r="F9">
-        <v>0.3577175684613607</v>
+        <v>0.3834521864023515</v>
       </c>
       <c r="G9">
-        <v>0.2418656959443695</v>
+        <v>0.2319306385082669</v>
       </c>
       <c r="H9">
-        <v>0.1558303779017933</v>
+        <v>0.3946214155329102</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.966047045098662</v>
+        <v>2.266947445502467</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7919670196600492</v>
+        <v>1.167315530999772</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2284959156365574</v>
+        <v>0.07261078708762625</v>
       </c>
       <c r="D10">
-        <v>0.09348803579326415</v>
+        <v>0.0316848363551685</v>
       </c>
       <c r="E10">
-        <v>2.297253064971045</v>
+        <v>0.6418353489824966</v>
       </c>
       <c r="F10">
-        <v>0.4207194745027962</v>
+        <v>0.3860229373528625</v>
       </c>
       <c r="G10">
-        <v>0.2914285338593317</v>
+        <v>0.2322372491482554</v>
       </c>
       <c r="H10">
-        <v>0.1652831547073532</v>
+        <v>0.3867853483643415</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.25700289201626</v>
+        <v>2.67635934335334</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9176069769479795</v>
+        <v>1.152054033099347</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2460380522948356</v>
+        <v>0.07738243928096722</v>
       </c>
       <c r="D11">
-        <v>0.09994072339101479</v>
+        <v>0.03378424978525629</v>
       </c>
       <c r="E11">
-        <v>2.489167427489292</v>
+        <v>0.6876882950468826</v>
       </c>
       <c r="F11">
-        <v>0.4518407035170497</v>
+        <v>0.3877053446988512</v>
       </c>
       <c r="G11">
-        <v>0.3164697144169679</v>
+        <v>0.2328149684769869</v>
       </c>
       <c r="H11">
-        <v>0.1708919895049661</v>
+        <v>0.3835933935306315</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.847555808432219</v>
+        <v>2.861959316267246</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9827803661065104</v>
+        <v>1.146809867433063</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2527280364799793</v>
+        <v>0.07919172017064113</v>
       </c>
       <c r="D12">
-        <v>0.1023890864211268</v>
+        <v>0.03457801114149106</v>
       </c>
       <c r="E12">
-        <v>2.562969471893297</v>
+        <v>0.7050778580106822</v>
       </c>
       <c r="F12">
-        <v>0.4640238307086975</v>
+        <v>0.3884168607559388</v>
       </c>
       <c r="G12">
-        <v>0.3263579217608026</v>
+        <v>0.2330975767170713</v>
       </c>
       <c r="H12">
-        <v>0.1732250367921608</v>
+        <v>0.3824385578004552</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.07177698730726</v>
+        <v>2.932145761991421</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.008756531119957</v>
+        <v>1.145070596478007</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2512850203378889</v>
+        <v>0.07880195400517209</v>
       </c>
       <c r="D13">
-        <v>0.1018615514096695</v>
+        <v>0.03440711641856353</v>
       </c>
       <c r="E13">
-        <v>2.547021524222217</v>
+        <v>0.7013315138417653</v>
       </c>
       <c r="F13">
-        <v>0.4613815127302132</v>
+        <v>0.3882603024356257</v>
       </c>
       <c r="G13">
-        <v>0.32420947740016</v>
+        <v>0.2330338596816546</v>
       </c>
       <c r="H13">
-        <v>0.1727129167434498</v>
+        <v>0.3826848709700528</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.023458607326063</v>
+        <v>2.917034193402571</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.003101996430985</v>
+        <v>1.145434175282134</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2465874564676511</v>
+        <v>0.07753124254089983</v>
       </c>
       <c r="D14">
-        <v>0.100142047067564</v>
+        <v>0.03384957816689393</v>
       </c>
       <c r="E14">
-        <v>2.495215419140692</v>
+        <v>0.689118411256274</v>
       </c>
       <c r="F14">
-        <v>0.4528347665590786</v>
+        <v>0.3877623861763126</v>
       </c>
       <c r="G14">
-        <v>0.3172748068448641</v>
+        <v>0.2328369347108321</v>
       </c>
       <c r="H14">
-        <v>0.1710796123396108</v>
+        <v>0.3834973028188529</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.865990038406096</v>
+        <v>2.867735547054451</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9848905840260613</v>
+        <v>1.146661821206663</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2437164092847297</v>
+        <v>0.07675320276933917</v>
       </c>
       <c r="D15">
-        <v>0.0990894714097692</v>
+        <v>0.03350790679516535</v>
       </c>
       <c r="E15">
-        <v>2.463635458049794</v>
+        <v>0.6816409853450835</v>
       </c>
       <c r="F15">
-        <v>0.4476528853100348</v>
+        <v>0.3874671100522065</v>
       </c>
       <c r="G15">
-        <v>0.3130814257966392</v>
+        <v>0.2327246504752623</v>
       </c>
       <c r="H15">
-        <v>0.1701070556752171</v>
+        <v>0.3840019673336883</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.769616773503344</v>
+        <v>2.83752606133362</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9739089094150017</v>
+        <v>1.147445971888885</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2273557242305486</v>
+        <v>0.07229927791647128</v>
       </c>
       <c r="D16">
-        <v>0.09306695392287168</v>
+        <v>0.03154746383057727</v>
       </c>
       <c r="E16">
-        <v>2.284858400867549</v>
+        <v>0.6388422863420686</v>
       </c>
       <c r="F16">
-        <v>0.4187388390869415</v>
+        <v>0.3859233667253577</v>
       </c>
       <c r="G16">
-        <v>0.2898461349355443</v>
+        <v>0.2322083824424084</v>
       </c>
       <c r="H16">
-        <v>0.164944677578049</v>
+        <v>0.3870014750429789</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.218484918508977</v>
+        <v>2.664216681562607</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.913521019440708</v>
+        <v>1.152431128631576</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.217395771826034</v>
+        <v>0.06957112872288462</v>
       </c>
       <c r="D17">
-        <v>0.08937974909712665</v>
+        <v>0.03034263908428869</v>
       </c>
       <c r="E17">
-        <v>2.176991382904703</v>
+        <v>0.6126309119016895</v>
       </c>
       <c r="F17">
-        <v>0.4016615219800457</v>
+        <v>0.385108182544478</v>
       </c>
       <c r="G17">
-        <v>0.2762628852240425</v>
+        <v>0.2320044960247074</v>
       </c>
       <c r="H17">
-        <v>0.1621271321643718</v>
+        <v>0.3889372443523413</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.881306476969087</v>
+        <v>2.557729513797483</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8786262560797979</v>
+        <v>1.155926030153267</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2116932237184272</v>
+        <v>0.0680035050112906</v>
       </c>
       <c r="D18">
-        <v>0.08726133315141738</v>
+        <v>0.02964887954424</v>
       </c>
       <c r="E18">
-        <v>2.115556056523118</v>
+        <v>0.5975704379714557</v>
       </c>
       <c r="F18">
-        <v>0.392067874915746</v>
+        <v>0.3846875528124158</v>
       </c>
       <c r="G18">
-        <v>0.268681901695274</v>
+        <v>0.231928426191736</v>
       </c>
       <c r="H18">
-        <v>0.1606283651532863</v>
+        <v>0.3900857114642804</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.687672270312817</v>
+        <v>2.496420554108965</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8593011054979627</v>
+        <v>1.15809592224835</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2097667409614701</v>
+        <v>0.06747299790619365</v>
       </c>
       <c r="D19">
-        <v>0.0865444479004438</v>
+        <v>0.02941385272422536</v>
       </c>
       <c r="E19">
-        <v>2.094854198552582</v>
+        <v>0.5924738414575756</v>
       </c>
       <c r="F19">
-        <v>0.3888576464648779</v>
+        <v>0.384553400365867</v>
       </c>
       <c r="G19">
-        <v>0.2661535617740185</v>
+        <v>0.2319097214561552</v>
       </c>
       <c r="H19">
-        <v>0.1601412269466778</v>
+        <v>0.3904805760293399</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.622159506764206</v>
+        <v>2.475652140910427</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8528818363787991</v>
+        <v>1.158857970212708</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2184532735055171</v>
+        <v>0.06986138584741752</v>
       </c>
       <c r="D20">
-        <v>0.08977200558002352</v>
+        <v>0.03047097544018129</v>
       </c>
       <c r="E20">
-        <v>2.188409955420113</v>
+        <v>0.6154195268870097</v>
       </c>
       <c r="F20">
-        <v>0.4034554479279038</v>
+        <v>0.3851899625615687</v>
       </c>
       <c r="G20">
-        <v>0.2776845365384872</v>
+        <v>0.2320219300708359</v>
       </c>
       <c r="H20">
-        <v>0.1624143131195552</v>
+        <v>0.3887275473102676</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.917167633403153</v>
+        <v>2.569071528298991</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8822627269590271</v>
+        <v>1.15553744470887</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2479659096991469</v>
+        <v>0.07790441715584961</v>
       </c>
       <c r="D21">
-        <v>0.1006469652334232</v>
+        <v>0.03401337474402055</v>
       </c>
       <c r="E21">
-        <v>2.510399927933804</v>
+        <v>0.6927049725179444</v>
       </c>
       <c r="F21">
-        <v>0.4553339708271622</v>
+        <v>0.3879066111061462</v>
       </c>
       <c r="G21">
-        <v>0.3193002797719942</v>
+        <v>0.2328930372540441</v>
       </c>
       <c r="H21">
-        <v>0.1715535008311662</v>
+        <v>0.3832572070406997</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.912225309720611</v>
+        <v>2.882218395459631</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.990203315755366</v>
+        <v>1.146294520906963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2675324973327804</v>
+        <v>0.08317476358521958</v>
       </c>
       <c r="D22">
-        <v>0.1077833990849513</v>
+        <v>0.03632128143586044</v>
       </c>
       <c r="E22">
-        <v>2.727519169991638</v>
+        <v>0.7433682505728001</v>
       </c>
       <c r="F22">
-        <v>0.4915845086102948</v>
+        <v>0.3901162103968119</v>
       </c>
       <c r="G22">
-        <v>0.3488885273281426</v>
+        <v>0.2338348364110345</v>
       </c>
       <c r="H22">
-        <v>0.1787566517085537</v>
+        <v>0.379996262071927</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.566065971786202</v>
+        <v>3.086315367057296</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.068383051473148</v>
+        <v>1.141692093130501</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2570616394219485</v>
+        <v>0.08036061718823362</v>
       </c>
       <c r="D23">
-        <v>0.1039714815732253</v>
+        <v>0.03509018860589208</v>
       </c>
       <c r="E23">
-        <v>2.610960171200475</v>
+        <v>0.7163136582145029</v>
       </c>
       <c r="F23">
-        <v>0.4720065070701622</v>
+        <v>0.3888969656880192</v>
       </c>
       <c r="G23">
-        <v>0.3328612111841522</v>
+        <v>0.2332978274802144</v>
       </c>
       <c r="H23">
-        <v>0.1747921350064985</v>
+        <v>0.3817078399737994</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.216734869522497</v>
+        <v>2.977437655808558</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.025907113614636</v>
+        <v>1.144016106068989</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2179751040959417</v>
+        <v>0.06973015803289684</v>
       </c>
       <c r="D24">
-        <v>0.089594662125144</v>
+        <v>0.03041295796452914</v>
       </c>
       <c r="E24">
-        <v>2.183245829203571</v>
+        <v>0.6141587668514745</v>
       </c>
       <c r="F24">
-        <v>0.4026437185575205</v>
+        <v>0.3851528402507185</v>
       </c>
       <c r="G24">
-        <v>0.2770411006470823</v>
+        <v>0.2320139200274625</v>
       </c>
       <c r="H24">
-        <v>0.1622841030342244</v>
+        <v>0.3888222405689419</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.900954146271147</v>
+        <v>2.563944077599274</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8806163956638784</v>
+        <v>1.155712624008856</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1767921686673191</v>
+        <v>0.0583220997053786</v>
       </c>
       <c r="D25">
-        <v>0.07417387433486056</v>
+        <v>0.02533832570496486</v>
       </c>
       <c r="E25">
-        <v>1.744552114876157</v>
+        <v>0.5045568252794084</v>
       </c>
       <c r="F25">
-        <v>0.3364281792165045</v>
+        <v>0.382955873145697</v>
       </c>
       <c r="G25">
-        <v>0.2255394708701601</v>
+        <v>0.2322008294922568</v>
       </c>
       <c r="H25">
-        <v>0.1533820401487702</v>
+        <v>0.3978356557814706</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.492835098690307</v>
+        <v>2.115630613574581</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7519346911057596</v>
+        <v>1.174425913223956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_210/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_210/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04997025638596142</v>
+        <v>0.1470893481089917</v>
       </c>
       <c r="D2">
-        <v>0.02157755715489174</v>
+        <v>0.06285588410636223</v>
       </c>
       <c r="E2">
-        <v>0.424270739259299</v>
+        <v>1.435331350624068</v>
       </c>
       <c r="F2">
-        <v>0.382896176993512</v>
+        <v>0.2936280698958669</v>
       </c>
       <c r="G2">
-        <v>0.2336590723292602</v>
+        <v>0.1935862940100037</v>
       </c>
       <c r="H2">
-        <v>0.4056141175377235</v>
+        <v>0.1500975049619484</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.78362691403629</v>
+        <v>5.461611335669716</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.193360450870998</v>
+        <v>0.6766513297065444</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04433884867539462</v>
+        <v>0.1272480849491728</v>
       </c>
       <c r="D3">
-        <v>0.01901427093091712</v>
+        <v>0.05519191605181106</v>
       </c>
       <c r="E3">
-        <v>0.3700728317306954</v>
+        <v>1.231983394681933</v>
       </c>
       <c r="F3">
-        <v>0.3838145461420837</v>
+        <v>0.267700357648053</v>
       </c>
       <c r="G3">
-        <v>0.2354554517334009</v>
+        <v>0.1749859076899938</v>
       </c>
       <c r="H3">
-        <v>0.4115929439719608</v>
+        <v>0.1496141671855824</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.557469793599068</v>
+        <v>4.764474804670897</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.209364920688103</v>
+        <v>0.6357342581257797</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04089501431946019</v>
+        <v>0.1151785360861766</v>
       </c>
       <c r="D4">
-        <v>0.01743346039221905</v>
+        <v>0.05048474036637174</v>
       </c>
       <c r="E4">
-        <v>0.3368859138142</v>
+        <v>1.109508460503818</v>
       </c>
       <c r="F4">
-        <v>0.3848471278943677</v>
+        <v>0.2531092053049662</v>
       </c>
       <c r="G4">
-        <v>0.236951864078776</v>
+        <v>0.1648729776815472</v>
       </c>
       <c r="H4">
-        <v>0.4156111646194205</v>
+        <v>0.1500883389247178</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.418055232556583</v>
+        <v>4.336783130226365</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.220741970214036</v>
+        <v>0.614987018656393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03949509809710605</v>
+        <v>0.1102845401793786</v>
       </c>
       <c r="D5">
-        <v>0.01678757195953295</v>
+        <v>0.04856557699681474</v>
       </c>
       <c r="E5">
-        <v>0.3233829881485804</v>
+        <v>1.060106245548496</v>
       </c>
       <c r="F5">
-        <v>0.3853851691370451</v>
+        <v>0.2474710492556511</v>
       </c>
       <c r="G5">
-        <v>0.2376598418865896</v>
+        <v>0.1610532582463762</v>
       </c>
       <c r="H5">
-        <v>0.4173356763975136</v>
+        <v>0.1504631636487304</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.36110720448039</v>
+        <v>4.162518786803901</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.225765901275011</v>
+        <v>0.6075487882768584</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03926285251057493</v>
+        <v>0.109473260244485</v>
       </c>
       <c r="D6">
-        <v>0.01668022178436246</v>
+        <v>0.04824682805170966</v>
       </c>
       <c r="E6">
-        <v>0.3211420537095364</v>
+        <v>1.051931158135105</v>
       </c>
       <c r="F6">
-        <v>0.3854815747799591</v>
+        <v>0.2465526957472903</v>
       </c>
       <c r="G6">
-        <v>0.2377833086799939</v>
+        <v>0.160436429422937</v>
       </c>
       <c r="H6">
-        <v>0.4176272807690751</v>
+        <v>0.1505360271011611</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.351642954366298</v>
+        <v>4.133581940565364</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.226623474389186</v>
+        <v>0.6063727129447187</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04087612051199585</v>
+        <v>0.1151124400700496</v>
       </c>
       <c r="D7">
-        <v>0.01742475651194297</v>
+        <v>0.05045886243523512</v>
       </c>
       <c r="E7">
-        <v>0.336703725944858</v>
+        <v>1.108840266143773</v>
       </c>
       <c r="F7">
-        <v>0.3848539101436828</v>
+        <v>0.2530319541270458</v>
       </c>
       <c r="G7">
-        <v>0.2369610155974442</v>
+        <v>0.1648202783569914</v>
       </c>
       <c r="H7">
-        <v>0.4156340698455665</v>
+        <v>0.1500926743072668</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.417287755151335</v>
+        <v>4.334432927554246</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.220808157791708</v>
+        <v>0.6148826956082303</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04802565737435316</v>
+        <v>0.1402221300414652</v>
       </c>
       <c r="D8">
-        <v>0.02069520621004983</v>
+        <v>0.06021328166451667</v>
       </c>
       <c r="E8">
-        <v>0.4055633357183694</v>
+        <v>1.364664998936945</v>
       </c>
       <c r="F8">
-        <v>0.3831151886882864</v>
+        <v>0.2843961398521699</v>
       </c>
       <c r="G8">
-        <v>0.2341963547123385</v>
+        <v>0.1868843516345535</v>
       </c>
       <c r="H8">
-        <v>0.4076034052631954</v>
+        <v>0.1497632099752693</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.705764848277454</v>
+        <v>5.221124177204558</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.198555758758474</v>
+        <v>0.6615826381826651</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06215732992041012</v>
+        <v>0.1905544824280838</v>
       </c>
       <c r="D9">
-        <v>0.02705157992572538</v>
+        <v>0.07936039060526667</v>
       </c>
       <c r="E9">
-        <v>0.5414061261407994</v>
+        <v>1.889836733780371</v>
       </c>
       <c r="F9">
-        <v>0.3834521864023515</v>
+        <v>0.3577175684613607</v>
       </c>
       <c r="G9">
-        <v>0.2319306385082669</v>
+        <v>0.2418656959443055</v>
       </c>
       <c r="H9">
-        <v>0.3946214155329102</v>
+        <v>0.155830377901907</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.266947445502467</v>
+        <v>6.966047045098662</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.167315530999772</v>
+        <v>0.7919670196600492</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07261078708762625</v>
+        <v>0.2284959156363442</v>
       </c>
       <c r="D10">
-        <v>0.0316848363551685</v>
+        <v>0.09348803579332099</v>
       </c>
       <c r="E10">
-        <v>0.6418353489824966</v>
+        <v>2.297253064971073</v>
       </c>
       <c r="F10">
-        <v>0.3860229373528625</v>
+        <v>0.4207194745027891</v>
       </c>
       <c r="G10">
-        <v>0.2322372491482554</v>
+        <v>0.2914285338592322</v>
       </c>
       <c r="H10">
-        <v>0.3867853483643415</v>
+        <v>0.1652831547073532</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.67635934335334</v>
+        <v>8.257002892016374</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.152054033099347</v>
+        <v>0.917606976948008</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07738243928096722</v>
+        <v>0.2460380522949208</v>
       </c>
       <c r="D11">
-        <v>0.03378424978525629</v>
+        <v>0.09994072339095794</v>
       </c>
       <c r="E11">
-        <v>0.6876882950468826</v>
+        <v>2.489167427489264</v>
       </c>
       <c r="F11">
-        <v>0.3877053446988512</v>
+        <v>0.4518407035170284</v>
       </c>
       <c r="G11">
-        <v>0.2328149684769869</v>
+        <v>0.3164697144169253</v>
       </c>
       <c r="H11">
-        <v>0.3835933935306315</v>
+        <v>0.1708919895048524</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.861959316267246</v>
+        <v>8.847555808432162</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.146809867433063</v>
+        <v>0.9827803661065104</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07919172017064113</v>
+        <v>0.2527280364802067</v>
       </c>
       <c r="D12">
-        <v>0.03457801114149106</v>
+        <v>0.1023890864209136</v>
       </c>
       <c r="E12">
-        <v>0.7050778580106822</v>
+        <v>2.562969471893297</v>
       </c>
       <c r="F12">
-        <v>0.3884168607559388</v>
+        <v>0.4640238307086975</v>
       </c>
       <c r="G12">
-        <v>0.2330975767170713</v>
+        <v>0.3263579217607457</v>
       </c>
       <c r="H12">
-        <v>0.3824385578004552</v>
+        <v>0.1732250367921608</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.932145761991421</v>
+        <v>9.071776987307317</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.145070596478007</v>
+        <v>1.0087565311199</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07880195400517209</v>
+        <v>0.2512850203377042</v>
       </c>
       <c r="D13">
-        <v>0.03440711641856353</v>
+        <v>0.1018615514096552</v>
       </c>
       <c r="E13">
-        <v>0.7013315138417653</v>
+        <v>2.547021524222203</v>
       </c>
       <c r="F13">
-        <v>0.3882603024356257</v>
+        <v>0.4613815127302274</v>
       </c>
       <c r="G13">
-        <v>0.2330338596816546</v>
+        <v>0.3242094774002169</v>
       </c>
       <c r="H13">
-        <v>0.3826848709700528</v>
+        <v>0.1727129167434498</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.917034193402571</v>
+        <v>9.023458607326177</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.145434175282134</v>
+        <v>1.003101996431013</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07753124254089983</v>
+        <v>0.2465874564677222</v>
       </c>
       <c r="D14">
-        <v>0.03384957816689393</v>
+        <v>0.1001420470675356</v>
       </c>
       <c r="E14">
-        <v>0.689118411256274</v>
+        <v>2.495215419140692</v>
       </c>
       <c r="F14">
-        <v>0.3877623861763126</v>
+        <v>0.4528347665590857</v>
       </c>
       <c r="G14">
-        <v>0.2328369347108321</v>
+        <v>0.3172748068448783</v>
       </c>
       <c r="H14">
-        <v>0.3834973028188529</v>
+        <v>0.1710796123397245</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.867735547054451</v>
+        <v>8.86599003840621</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.146661821206663</v>
+        <v>0.9848905840261182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07675320276933917</v>
+        <v>0.2437164092849429</v>
       </c>
       <c r="D15">
-        <v>0.03350790679516535</v>
+        <v>0.09908947140975499</v>
       </c>
       <c r="E15">
-        <v>0.6816409853450835</v>
+        <v>2.463635458049765</v>
       </c>
       <c r="F15">
-        <v>0.3874671100522065</v>
+        <v>0.4476528853100348</v>
       </c>
       <c r="G15">
-        <v>0.2327246504752623</v>
+        <v>0.313081425796625</v>
       </c>
       <c r="H15">
-        <v>0.3840019673336883</v>
+        <v>0.1701070556752171</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.83752606133362</v>
+        <v>8.769616773503344</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.147445971888885</v>
+        <v>0.9739089094150017</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07229927791647128</v>
+        <v>0.2273557242304634</v>
       </c>
       <c r="D16">
-        <v>0.03154746383057727</v>
+        <v>0.09306695392294984</v>
       </c>
       <c r="E16">
-        <v>0.6388422863420686</v>
+        <v>2.284858400867535</v>
       </c>
       <c r="F16">
-        <v>0.3859233667253577</v>
+        <v>0.4187388390869344</v>
       </c>
       <c r="G16">
-        <v>0.2322083824424084</v>
+        <v>0.2898461349355301</v>
       </c>
       <c r="H16">
-        <v>0.3870014750429789</v>
+        <v>0.164944677578049</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.664216681562607</v>
+        <v>8.218484918508977</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.152431128631576</v>
+        <v>0.9135210194407364</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06957112872288462</v>
+        <v>0.2173957718261192</v>
       </c>
       <c r="D17">
-        <v>0.03034263908428869</v>
+        <v>0.08937974909716218</v>
       </c>
       <c r="E17">
-        <v>0.6126309119016895</v>
+        <v>2.176991382904731</v>
       </c>
       <c r="F17">
-        <v>0.385108182544478</v>
+        <v>0.4016615219800457</v>
       </c>
       <c r="G17">
-        <v>0.2320044960247074</v>
+        <v>0.2762628852239715</v>
       </c>
       <c r="H17">
-        <v>0.3889372443523413</v>
+        <v>0.1621271321643718</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.557729513797483</v>
+        <v>7.881306476968916</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.155926030153267</v>
+        <v>0.8786262560798264</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0680035050112906</v>
+        <v>0.2116932237182141</v>
       </c>
       <c r="D18">
-        <v>0.02964887954424</v>
+        <v>0.08726133315159501</v>
       </c>
       <c r="E18">
-        <v>0.5975704379714557</v>
+        <v>2.115556056523161</v>
       </c>
       <c r="F18">
-        <v>0.3846875528124158</v>
+        <v>0.392067874915746</v>
       </c>
       <c r="G18">
-        <v>0.231928426191736</v>
+        <v>0.268681901695274</v>
       </c>
       <c r="H18">
-        <v>0.3900857114642804</v>
+        <v>0.1606283651532863</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.496420554108965</v>
+        <v>7.687672270312873</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.15809592224835</v>
+        <v>0.8593011054980195</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06747299790619365</v>
+        <v>0.2097667409614132</v>
       </c>
       <c r="D19">
-        <v>0.02941385272422536</v>
+        <v>0.08654444790033722</v>
       </c>
       <c r="E19">
-        <v>0.5924738414575756</v>
+        <v>2.094854198552596</v>
       </c>
       <c r="F19">
-        <v>0.384553400365867</v>
+        <v>0.3888576464648779</v>
       </c>
       <c r="G19">
-        <v>0.2319097214561552</v>
+        <v>0.2661535617740753</v>
       </c>
       <c r="H19">
-        <v>0.3904805760293399</v>
+        <v>0.1601412269466778</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.475652140910427</v>
+        <v>7.622159506764319</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.158857970212708</v>
+        <v>0.8528818363788275</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06986138584741752</v>
+        <v>0.2184532735056592</v>
       </c>
       <c r="D20">
-        <v>0.03047097544018129</v>
+        <v>0.08977200557997378</v>
       </c>
       <c r="E20">
-        <v>0.6154195268870097</v>
+        <v>2.188409955420099</v>
       </c>
       <c r="F20">
-        <v>0.3851899625615687</v>
+        <v>0.4034554479278967</v>
       </c>
       <c r="G20">
-        <v>0.2320219300708359</v>
+        <v>0.2776845365385014</v>
       </c>
       <c r="H20">
-        <v>0.3887275473102676</v>
+        <v>0.1624143131195552</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.569071528298991</v>
+        <v>7.917167633403437</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.15553744470887</v>
+        <v>0.8822627269590839</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07790441715584961</v>
+        <v>0.2479659096989195</v>
       </c>
       <c r="D21">
-        <v>0.03401337474402055</v>
+        <v>0.1006469652332811</v>
       </c>
       <c r="E21">
-        <v>0.6927049725179444</v>
+        <v>2.510399927933747</v>
       </c>
       <c r="F21">
-        <v>0.3879066111061462</v>
+        <v>0.4553339708271551</v>
       </c>
       <c r="G21">
-        <v>0.2328930372540441</v>
+        <v>0.3193002797720652</v>
       </c>
       <c r="H21">
-        <v>0.3832572070406997</v>
+        <v>0.1715535008310525</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.882218395459631</v>
+        <v>8.912225309720782</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.146294520906963</v>
+        <v>0.9902033157553944</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08317476358521958</v>
+        <v>0.2675324973329793</v>
       </c>
       <c r="D22">
-        <v>0.03632128143586044</v>
+        <v>0.1077833990848376</v>
       </c>
       <c r="E22">
-        <v>0.7433682505728001</v>
+        <v>2.727519169991638</v>
       </c>
       <c r="F22">
-        <v>0.3901162103968119</v>
+        <v>0.4915845086103019</v>
       </c>
       <c r="G22">
-        <v>0.2338348364110345</v>
+        <v>0.3488885273280715</v>
       </c>
       <c r="H22">
-        <v>0.379996262071927</v>
+        <v>0.1787566517085537</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.086315367057296</v>
+        <v>9.566065971786315</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.141692093130501</v>
+        <v>1.068383051473205</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08036061718823362</v>
+        <v>0.257061639422048</v>
       </c>
       <c r="D23">
-        <v>0.03509018860589208</v>
+        <v>0.1039714815731969</v>
       </c>
       <c r="E23">
-        <v>0.7163136582145029</v>
+        <v>2.610960171200446</v>
       </c>
       <c r="F23">
-        <v>0.3888969656880192</v>
+        <v>0.4720065070701622</v>
       </c>
       <c r="G23">
-        <v>0.2332978274802144</v>
+        <v>0.3328612111841522</v>
       </c>
       <c r="H23">
-        <v>0.3817078399737994</v>
+        <v>0.174792135006598</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.977437655808558</v>
+        <v>9.216734869522554</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.144016106068989</v>
+        <v>1.025907113614664</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06973015803289684</v>
+        <v>0.2179751040959133</v>
       </c>
       <c r="D24">
-        <v>0.03041295796452914</v>
+        <v>0.08959466212530032</v>
       </c>
       <c r="E24">
-        <v>0.6141587668514745</v>
+        <v>2.183245829203571</v>
       </c>
       <c r="F24">
-        <v>0.3851528402507185</v>
+        <v>0.4026437185575347</v>
       </c>
       <c r="G24">
-        <v>0.2320139200274625</v>
+        <v>0.2770411006470113</v>
       </c>
       <c r="H24">
-        <v>0.3888222405689419</v>
+        <v>0.1622841030342101</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.563944077599274</v>
+        <v>7.900954146271147</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.155712624008856</v>
+        <v>0.8806163956638215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0583220997053786</v>
+        <v>0.1767921686669922</v>
       </c>
       <c r="D25">
-        <v>0.02533832570496486</v>
+        <v>0.07417387433472555</v>
       </c>
       <c r="E25">
-        <v>0.5045568252794084</v>
+        <v>1.744552114876157</v>
       </c>
       <c r="F25">
-        <v>0.382955873145697</v>
+        <v>0.3364281792165187</v>
       </c>
       <c r="G25">
-        <v>0.2322008294922568</v>
+        <v>0.2255394708702809</v>
       </c>
       <c r="H25">
-        <v>0.3978356557814706</v>
+        <v>0.1533820401487702</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.115630613574581</v>
+        <v>6.492835098690307</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.174425913223956</v>
+        <v>0.7519346911057028</v>
       </c>
     </row>
   </sheetData>
